--- a/Forced Convection/Measured Data.xlsx
+++ b/Forced Convection/Measured Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rutgersconnect-my.sharepoint.com/personal/brk70_scarletmail_rutgers_edu/Documents/Senior Year/Senior Spring/ME Lab II/Forced Convection Lab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/939c1b26bea70f0b/Personal/GitHub/School-Programs/Forced Convection/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E225225-6A65-4DEB-9A5D-B88FCD6FD096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{8E225225-6A65-4DEB-9A5D-B88FCD6FD096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D591E4F-7A5F-4725-A858-DAC1AB8D9C54}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4E149E8B-1DBE-45FF-B901-718D0681D3F8}"/>
   </bookViews>
@@ -50,28 +50,28 @@
     <t>Pipe Mano</t>
   </si>
   <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>Inlet Temp</t>
+  </si>
+  <si>
+    <t>Outlet Temp</t>
+  </si>
+  <si>
+    <t>Test 1 - High MFR Low Crnt</t>
+  </si>
+  <si>
+    <t>Test 2 - High MFR High Crnt</t>
+  </si>
+  <si>
+    <t>Test 3 - Low MFR High Crnt</t>
+  </si>
+  <si>
+    <t>Test 4 - Low MFR Low Crnt</t>
+  </si>
+  <si>
     <t>Current</t>
-  </si>
-  <si>
-    <t>Voltage</t>
-  </si>
-  <si>
-    <t>Inlet Temp</t>
-  </si>
-  <si>
-    <t>Outlet Temp</t>
-  </si>
-  <si>
-    <t>Test 1 - High MFR Low Current</t>
-  </si>
-  <si>
-    <t>Test 4 - Low MFR Low Current</t>
-  </si>
-  <si>
-    <t>Test 3 - Low MFR High Current</t>
-  </si>
-  <si>
-    <t>Test 2 - High MFR High Current</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,21 +475,21 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>0.57023000059999995</v>
@@ -507,15 +507,15 @@
         <v>106</v>
       </c>
       <c r="G2">
-        <v>310.5</v>
+        <v>310.64999999999998</v>
       </c>
       <c r="H2">
-        <v>325</v>
+        <v>325.14999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0.56642000059999997</v>
@@ -533,15 +533,15 @@
         <v>161</v>
       </c>
       <c r="G3">
-        <v>312.5</v>
+        <v>312.64999999999998</v>
       </c>
       <c r="H3">
-        <v>340</v>
+        <v>340.15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>0.30988000030000001</v>
@@ -559,15 +559,15 @@
         <v>160</v>
       </c>
       <c r="G4">
-        <v>313.8</v>
+        <v>313.95</v>
       </c>
       <c r="H4">
-        <v>347</v>
+        <v>347.15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0.31369000029999999</v>
@@ -585,10 +585,10 @@
         <v>105</v>
       </c>
       <c r="G5">
-        <v>314.17</v>
+        <v>314.32</v>
       </c>
       <c r="H5">
-        <v>332</v>
+        <v>332.15</v>
       </c>
     </row>
   </sheetData>
